--- a/src/test/resources/Documentation_Folder/Test Strategy - Test Plan.xlsx
+++ b/src/test/resources/Documentation_Folder/Test Strategy - Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baharturk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baharturk/Desktop/testingexercise/src/test/resources/Documentation_Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB99927-7499-D04A-B9E5-3502A8AA823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C16D60C-C8D5-E347-81EB-1FF23A1C1B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" activeTab="2" xr2:uid="{92875D4B-7F4D-C242-A9D5-B6BA32E5FC1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17740" windowHeight="14740" activeTab="1" xr2:uid="{92875D4B-7F4D-C242-A9D5-B6BA32E5FC1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="225">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Performance or Load test can be applied.</t>
-  </si>
-  <si>
-    <t>In which circustances the test cases pass?</t>
   </si>
   <si>
     <t>Once the expected result is reached, the test cases pass.</t>
@@ -773,13 +770,19 @@
   <si>
     <t>7. User should get error message in case the fields are left blank.</t>
   </si>
+  <si>
+    <t>#007</t>
+  </si>
+  <si>
+    <t>In which circumstances the test cases pass?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1253,9 +1256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1265,89 +1265,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1364,16 +1301,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1387,9 +1315,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1411,7 +1336,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,7 +1352,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,8 +1401,86 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1587,13 +1590,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1603,6 +1599,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1905,7 +1908,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2CEDCE8-1E5D-F844-8552-9B2C517BC7BE}" name="Tabella2" displayName="Tabella2" ref="A1:C138" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2CEDCE8-1E5D-F844-8552-9B2C517BC7BE}" name="Tabella2" displayName="Tabella2" ref="A1:C138" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C138" xr:uid="{C5B66E32-F879-9E42-ADE6-F8DC158F8AA9}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{572A5524-FE5F-F149-9CB4-D66EB6424593}" name="Category" dataDxfId="2"/>
@@ -2227,119 +2230,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="69" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="95" t="s">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="69" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="95" t="s">
+    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="69" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="95" t="s">
+    <row r="6" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="78"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="95" t="s">
+    <row r="7" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="75"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="66" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="76"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="70" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="95" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="92" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="92" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="96" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="96" t="s">
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="70" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="96" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2356,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF2B736-D268-F64A-8A97-329BCBAE4617}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2369,83 +2372,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="38"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="38"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="38"/>
+        <v>108</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
         <v>6</v>
@@ -2455,894 +2458,899 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="85"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="85"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="84"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="84"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="84"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="84"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="84"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="84"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="84"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="84"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="84"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="84"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="84"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="59"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="59"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="59"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="38"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="38"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="44"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="44"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="44"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="44"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="44"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="44"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="44"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="44"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="38"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="46"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="46"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="43" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="38"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="38"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="38"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="38"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="38"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="83" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="48" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="44"/>
+      <c r="D59" s="84"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="48" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="44"/>
+      <c r="D60" s="84"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="48" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="44"/>
+      <c r="D61" s="84"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="48" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="44"/>
+      <c r="D62" s="84"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="48" t="s">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="44"/>
+      <c r="D63" s="84"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="48" t="s">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="44"/>
+      <c r="D64" s="84"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="48" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="44"/>
+      <c r="D65" s="84"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="48" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="44"/>
+      <c r="D66" s="84"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="38"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="48" t="s">
+      <c r="C70" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="83" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="48" t="s">
+      <c r="A71" s="20"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="44"/>
+      <c r="D71" s="84"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="48" t="s">
+      <c r="A72" s="20"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="44"/>
+      <c r="D72" s="84"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="48" t="s">
+      <c r="A73" s="20"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="44"/>
+      <c r="D73" s="84"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="48" t="s">
+      <c r="A74" s="20"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="44"/>
+      <c r="D74" s="84"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="44"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="44"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="84"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="44"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="84"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="20"/>
+      <c r="B78" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C78" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="83" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="48" t="s">
+      <c r="A79" s="20"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="44"/>
+      <c r="D79" s="84"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="48" t="s">
+      <c r="A80" s="20"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="44"/>
+      <c r="D80" s="84"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="48" t="s">
+      <c r="A81" s="20"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="44"/>
+      <c r="D81" s="84"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="20"/>
+      <c r="B83" s="86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D84" s="44"/>
+      <c r="D84" s="84"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="48" t="s">
+      <c r="A85" s="20"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="44"/>
+      <c r="D85" s="84"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="48" t="s">
+      <c r="A86" s="20"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="44"/>
+      <c r="D86" s="84"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="48" t="s">
+      <c r="A87" s="20"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="44"/>
+      <c r="D87" s="84"/>
     </row>
     <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="48" t="s">
+      <c r="A88" s="20"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="38"/>
+      <c r="D88" s="20"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
-      <c r="B89" s="8" t="s">
+      <c r="A89" s="20"/>
+      <c r="B89" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="83" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="48" t="s">
+      <c r="A90" s="20"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="44"/>
+      <c r="D90" s="84"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="48" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="84"/>
+      <c r="C91" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D91" s="44"/>
+      <c r="D91" s="84"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="48" t="s">
+      <c r="A92" s="20"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="44"/>
+      <c r="D92" s="84"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="48" t="s">
+      <c r="A93" s="20"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="44"/>
+      <c r="D93" s="84"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="44"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="84"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="38"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="38"/>
+      <c r="D97" s="20"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="38"/>
-      <c r="B98" s="10" t="s">
+      <c r="A98" s="20"/>
+      <c r="B98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="38"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="38"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="20"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="38"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="49" t="s">
+      <c r="A101" s="20"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="38"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="52" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D102" s="38"/>
+      <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="38"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="38"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="20"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="38"/>
-      <c r="B106" s="11" t="s">
+      <c r="A106" s="20"/>
+      <c r="B106" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="38"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="38"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="20"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="38"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" s="83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D111" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="38"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="44"/>
+      <c r="D112" s="84"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="44"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="84"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="44"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="84"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="38"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="38"/>
+      <c r="D117" s="20"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="38"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="38"/>
+      <c r="D118" s="20"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="38"/>
-      <c r="B119" s="43" t="s">
+      <c r="A119" s="20"/>
+      <c r="B119" s="83" t="s">
         <v>46</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="20"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="20"/>
+      <c r="B121" s="84"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="20"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="20"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="20"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="20"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="20"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="20"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A127" s="20"/>
+      <c r="B127" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D119" s="38"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="38"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="38"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="38"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="38"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="38"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="38"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="38"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="38"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="38"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="38"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="38"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="38"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="38"/>
-    </row>
-    <row r="127" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A127" s="38"/>
-      <c r="B127" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="38" t="s">
+      <c r="D127" s="20"/>
+    </row>
+    <row r="128" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="38"/>
-    </row>
-    <row r="128" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="60" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C134" s="12"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C135" s="12"/>
+      <c r="C135" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
     <mergeCell ref="D111:D114"/>
     <mergeCell ref="B119:B124"/>
     <mergeCell ref="D13:D16"/>
@@ -3359,11 +3367,6 @@
     <mergeCell ref="B78:B82"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="B13:B25"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="A28:A38"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3373,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D114E650-6A3C-804E-9C46-7DF386D7F8BC}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:C37"/>
     </sheetView>
   </sheetViews>
@@ -3385,678 +3388,684 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="95" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="32" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="32" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="96"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="96"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="32" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="33"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="96"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="96"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="96"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="96"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="96"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="96"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="95" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="32" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="33"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="96"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="32" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="96"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="96"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="32" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="96"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="32" t="s">
+      <c r="A26" s="96"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="32" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="96"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="96"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="96"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="33"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="96"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="33"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="96"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="96"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="96"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="33"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="96"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="96"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="35"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="97"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="27"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="92" t="s">
         <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G39" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="95" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="32" t="s">
+      <c r="A40" s="96"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="33"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="96"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="32" t="s">
+      <c r="A41" s="96"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="33"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="96"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="32" t="s">
+      <c r="A42" s="96"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="33"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="32" t="s">
+      <c r="A43" s="96"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="33"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="96"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="32" t="s">
+      <c r="A44" s="96"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="32" t="s">
+      <c r="A45" s="96"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="32" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="32" t="s">
+      <c r="A47" s="96"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="96"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="96"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="96"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="33"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="33"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="96"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="33"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="96"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="33"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+      <c r="H54" s="96"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="35"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H2:H19"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
+    <mergeCell ref="F2:F19"/>
+    <mergeCell ref="G2:G19"/>
     <mergeCell ref="G21:G37"/>
     <mergeCell ref="H21:H37"/>
     <mergeCell ref="A39:A55"/>
@@ -4069,12 +4078,6 @@
     <mergeCell ref="B21:B37"/>
     <mergeCell ref="C21:C37"/>
     <mergeCell ref="F21:F37"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="C2:C19"/>
-    <mergeCell ref="F2:F19"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="H2:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4084,1341 +4087,1341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759824D-C0D2-C240-B1E7-6422D863D23E}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="61" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="50">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="56"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="B23" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="50">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
+      <c r="B28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="41"/>
+      <c r="B38" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A41" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="50">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+      <c r="B55" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="54"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="55"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="39"/>
+    </row>
+    <row r="62" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A62" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="42"/>
+      <c r="B64" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="42"/>
+      <c r="B65" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="41"/>
+      <c r="B66" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="50">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="41"/>
+      <c r="B69" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="42"/>
+      <c r="B71" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="41"/>
+      <c r="B72" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="42"/>
+      <c r="B74" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="42"/>
+      <c r="B75" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="41"/>
+      <c r="B76" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="42"/>
+      <c r="B78" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="41"/>
+      <c r="B79" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="54"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
+    </row>
+    <row r="82" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A82" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="42"/>
+      <c r="B84" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="42"/>
+      <c r="B85" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="41"/>
+      <c r="B86" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="50">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="41"/>
+      <c r="B89" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="42"/>
+      <c r="B91" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="41"/>
+      <c r="B92" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="42"/>
+      <c r="B94" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="42"/>
+      <c r="B95" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="41"/>
+      <c r="B96" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="86" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="42"/>
+      <c r="B98" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="41"/>
+      <c r="B99" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="B101" s="46" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="C101" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="66" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66" t="s">
+      <c r="B102" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="66" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="42"/>
+      <c r="B103" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="65" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="42"/>
+      <c r="B104" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="76">
+    </row>
+    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="41"/>
+      <c r="B105" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="44">
         <v>44267</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+    <row r="106" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A106" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="42"/>
+      <c r="B107" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A108" s="41"/>
+      <c r="B108" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="42"/>
+      <c r="B110" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="41"/>
+      <c r="B111" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A112" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="42"/>
+      <c r="B113" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="42"/>
+      <c r="B114" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A115" s="41"/>
+      <c r="B115" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="42"/>
+      <c r="B117" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="41"/>
+      <c r="B118" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="42"/>
+      <c r="B122" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="42"/>
+      <c r="B123" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="41"/>
+      <c r="B124" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="C124" s="44">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A125" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="66" t="s">
+      <c r="B125" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A126" s="42"/>
+      <c r="B126" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="66" t="s">
+    </row>
+    <row r="127" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A127" s="41"/>
+      <c r="B127" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="B128" s="40" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="66" t="s">
+      <c r="C128" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="65" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="42"/>
+      <c r="B129" s="40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="66" t="s">
+      <c r="C129" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="65" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="41"/>
+      <c r="B130" s="40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="C130" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="66" t="s">
+    </row>
+    <row r="131" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="66" t="s">
+      <c r="B131" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E131" s="65"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="42"/>
+      <c r="B132" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="42"/>
+      <c r="B133" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="41"/>
+      <c r="B134" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="66" t="s">
+      <c r="C134" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="B135" s="40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="66" t="s">
+      <c r="C135" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="65" t="s">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="42"/>
+      <c r="B136" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="41"/>
+      <c r="B137" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C137" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="38" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="65" t="s">
+      <c r="B138" s="37" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="82"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="68"/>
-      <c r="B23" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="68"/>
-      <c r="B24" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="B25" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="76">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="B28" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="68"/>
-      <c r="B30" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="B31" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
-      <c r="B33" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
-      <c r="B34" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
-      <c r="B37" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
-      <c r="B45" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="76">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
-      <c r="B48" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
-      <c r="B51" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
-      <c r="B53" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
-      <c r="B54" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="67"/>
-      <c r="B55" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
-      <c r="B57" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="67"/>
-      <c r="B58" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="65"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="65"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
-      <c r="B64" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="67"/>
-      <c r="B66" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="76">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B67" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A68" s="68"/>
-      <c r="B68" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="67"/>
-      <c r="B69" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="67"/>
-      <c r="B72" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
-      <c r="B74" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="67"/>
-      <c r="B76" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B77" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="65" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
-      <c r="B78" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="67"/>
-      <c r="B79" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="80"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="65"/>
-    </row>
-    <row r="82" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A82" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="65" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
-      <c r="B84" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
-      <c r="B85" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="67"/>
-      <c r="B86" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C86" s="76">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B87" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="67"/>
-      <c r="B89" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B90" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C90" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
-      <c r="B91" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="67"/>
-      <c r="B92" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B93" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C93" s="65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="68"/>
-      <c r="B94" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="65" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="67"/>
-      <c r="B96" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" s="65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="67"/>
-      <c r="B99" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B100" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="B101" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B102" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
-      <c r="B104" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="67"/>
-      <c r="B105" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C105" s="70">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A106" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B106" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C106" s="65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="74" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A108" s="67"/>
-      <c r="B108" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C108" s="65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="67"/>
-      <c r="B111" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A112" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="68"/>
-      <c r="B113" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
-      <c r="B114" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A115" s="67"/>
-      <c r="B115" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
-      <c r="B117" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="67"/>
-      <c r="B118" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C119" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="B120" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="B121" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" s="65" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
-      <c r="B122" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C122" s="65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="68"/>
-      <c r="B123" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C123" s="65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="67"/>
-      <c r="B124" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="70">
-        <v>44267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A125" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B125" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" s="65" t="s">
+      <c r="C138" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="64" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="76" x14ac:dyDescent="0.2">
-      <c r="A126" s="68"/>
-      <c r="B126" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A127" s="67"/>
-      <c r="B127" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C127" s="65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B128" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="68"/>
-      <c r="B129" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="67"/>
-      <c r="B130" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" s="65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="E131" s="91"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="68"/>
-      <c r="B132" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="C132" s="65" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="68"/>
-      <c r="B133" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C133" s="65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="67"/>
-      <c r="B134" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" s="65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B135" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="68"/>
-      <c r="B136" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="67"/>
-      <c r="B137" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="65" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B138" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="90" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5442,7 +5445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81EA42A-5E19-F44E-A687-D9103A3CDBC9}">
   <dimension ref="A1:A109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
@@ -5452,56 +5455,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
-        <v>204</v>
+      <c r="A1" s="62" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88" t="s">
-        <v>203</v>
+      <c r="A33" s="62" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="88" t="s">
-        <v>202</v>
+      <c r="A45" s="62" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="89"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="88" t="s">
-        <v>201</v>
+      <c r="A56" s="62" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="89"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="88" t="s">
-        <v>200</v>
+      <c r="A69" s="62" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="89"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="88" t="s">
-        <v>199</v>
+      <c r="A84" s="62" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="89"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="88" t="s">
-        <v>212</v>
+      <c r="A109" s="62" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
